--- a/Code/Results/Cases/Case_2_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.98174428675635</v>
+        <v>15.44521330546508</v>
       </c>
       <c r="C2">
-        <v>18.47995588961526</v>
+        <v>10.6564330097659</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.24479864659154</v>
+        <v>25.11644031700227</v>
       </c>
       <c r="F2">
-        <v>33.92379319869445</v>
+        <v>38.61342350386668</v>
       </c>
       <c r="G2">
-        <v>2.058024784425324</v>
+        <v>3.604331127308892</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.232317779561459</v>
+        <v>16.69809475389609</v>
       </c>
       <c r="J2">
-        <v>3.977746996754531</v>
+        <v>7.460739110491136</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.12035410620607</v>
+        <v>17.85230328006006</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.3517110898012</v>
+        <v>14.62826940263328</v>
       </c>
       <c r="C3">
-        <v>17.30858811886383</v>
+        <v>9.995787905227608</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.79309663684601</v>
+        <v>24.78526414648747</v>
       </c>
       <c r="F3">
-        <v>32.29640106179808</v>
+        <v>38.44420350242255</v>
       </c>
       <c r="G3">
-        <v>2.063844879740667</v>
+        <v>3.606413720361229</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.774523534892834</v>
+        <v>16.8824939374826</v>
       </c>
       <c r="J3">
-        <v>4.054658856412033</v>
+        <v>7.492608258394426</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.27771372717293</v>
+        <v>18.00577431685137</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.29252781484845</v>
+        <v>14.10186918382309</v>
       </c>
       <c r="C4">
-        <v>16.5487216561215</v>
+        <v>9.565533061648935</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>22.86881365500494</v>
+        <v>24.58436526692265</v>
       </c>
       <c r="F4">
-        <v>31.29382910432331</v>
+        <v>38.35280396412916</v>
       </c>
       <c r="G4">
-        <v>2.067510206222059</v>
+        <v>3.607757522801745</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>9.11582364501359</v>
+        <v>17.00123555203621</v>
       </c>
       <c r="J4">
-        <v>4.103998704897285</v>
+        <v>7.513269293802447</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.40042567630973</v>
+        <v>18.10676262854842</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.8461846055545</v>
+        <v>13.88129976773867</v>
       </c>
       <c r="C5">
-        <v>16.22885470414801</v>
+        <v>9.384033733125511</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>22.48416474388576</v>
+        <v>24.50320132817832</v>
       </c>
       <c r="F5">
-        <v>30.884956054909</v>
+        <v>38.31872720947415</v>
       </c>
       <c r="G5">
-        <v>2.069027808462168</v>
+        <v>3.608321552515596</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>9.257054370220139</v>
+        <v>17.05101578490645</v>
       </c>
       <c r="J5">
-        <v>4.124628079841488</v>
+        <v>7.521964253973351</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.45645124801564</v>
+        <v>18.14960702122466</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.77117960777264</v>
+        <v>13.84431442656469</v>
       </c>
       <c r="C6">
-        <v>16.17512455927045</v>
+        <v>9.353524290651782</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>22.41982101208557</v>
+        <v>24.48976922268622</v>
       </c>
       <c r="F6">
-        <v>30.81706073413569</v>
+        <v>38.31326085280089</v>
       </c>
       <c r="G6">
-        <v>2.069281276498046</v>
+        <v>3.60841620249122</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.280636622741142</v>
+        <v>17.05936595152691</v>
       </c>
       <c r="J6">
-        <v>4.12808492570394</v>
+        <v>7.523424695445685</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.46610251918942</v>
+        <v>18.15682318920972</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.28656791921956</v>
+        <v>14.09891877245296</v>
       </c>
       <c r="C7">
-        <v>16.54444916053074</v>
+        <v>9.563110231205119</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>22.8636580872302</v>
+        <v>24.58326769420076</v>
       </c>
       <c r="F7">
-        <v>31.28831543054333</v>
+        <v>38.35233153095355</v>
       </c>
       <c r="G7">
-        <v>2.067530575031786</v>
+        <v>3.607765062951005</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>9.117719577811503</v>
+        <v>17.00190126390196</v>
       </c>
       <c r="J7">
-        <v>4.104274813038274</v>
+        <v>7.513385441226815</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.40115757963301</v>
+        <v>18.10733360751082</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.43178342145278</v>
+        <v>15.16877305639987</v>
       </c>
       <c r="C8">
-        <v>18.08450073460325</v>
+        <v>10.43376265917119</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.75123416763924</v>
+        <v>25.00179724637628</v>
       </c>
       <c r="F8">
-        <v>33.36365238454073</v>
+        <v>38.55249846850403</v>
       </c>
       <c r="G8">
-        <v>2.060013052167995</v>
+        <v>3.605035730211112</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.417552776264369</v>
+        <v>16.76053242158167</v>
       </c>
       <c r="J8">
-        <v>4.003821161720471</v>
+        <v>7.471500997851368</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.16886234634098</v>
+        <v>17.90381282922686</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.17850090197284</v>
+        <v>17.06382785529114</v>
       </c>
       <c r="C9">
-        <v>20.78275146074317</v>
+        <v>11.94520814301547</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>28.18273066289675</v>
+        <v>25.83797251210403</v>
       </c>
       <c r="F9">
-        <v>37.38819837677656</v>
+        <v>39.04286340933728</v>
       </c>
       <c r="G9">
-        <v>2.04595675942242</v>
+        <v>3.600197438753041</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>7.109640420276736</v>
+        <v>16.33081800872843</v>
       </c>
       <c r="J9">
-        <v>3.824119339307174</v>
+        <v>7.398016679382902</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.945672254107601</v>
+        <v>17.55869235506217</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.65545100360632</v>
+        <v>18.3259499341579</v>
       </c>
       <c r="C10">
-        <v>22.57098369585754</v>
+        <v>12.93592439936827</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.53224404818461</v>
+        <v>26.45642212775176</v>
       </c>
       <c r="F10">
-        <v>40.2991049226026</v>
+        <v>39.46062238306748</v>
       </c>
       <c r="G10">
-        <v>2.035983444778778</v>
+        <v>3.596952565751802</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.18767743520053</v>
+        <v>16.04142655945864</v>
       </c>
       <c r="J10">
-        <v>3.703503302996785</v>
+        <v>7.349268673833246</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.958434032832217</v>
+        <v>17.33856900517493</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.72359808209808</v>
+        <v>18.87091534880947</v>
       </c>
       <c r="C11">
-        <v>23.3430028717139</v>
+        <v>13.36065585517146</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>31.5635282219517</v>
+        <v>26.7375538307259</v>
       </c>
       <c r="F11">
-        <v>41.61135129199922</v>
+        <v>39.66259887780835</v>
       </c>
       <c r="G11">
-        <v>2.031507575415361</v>
+        <v>3.59554292042957</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.777219391666367</v>
+        <v>15.91543355783923</v>
       </c>
       <c r="J11">
-        <v>3.651366432033766</v>
+        <v>7.32822310597869</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.00990519204316</v>
+        <v>17.24580903804541</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.11975393233777</v>
+        <v>19.0730260595257</v>
       </c>
       <c r="C12">
-        <v>23.62945134370662</v>
+        <v>13.51776474599919</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.94869105077757</v>
+        <v>26.84389107731025</v>
       </c>
       <c r="F12">
-        <v>42.10649598085144</v>
+        <v>39.74074534933008</v>
       </c>
       <c r="G12">
-        <v>2.029820043627596</v>
+        <v>3.595018625558453</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.623207506223051</v>
+        <v>15.86853195860549</v>
       </c>
       <c r="J12">
-        <v>3.632043803179592</v>
+        <v>7.320415725397976</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.03651225117668</v>
+        <v>17.21175430356857</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.03480335914092</v>
+        <v>19.02968799476895</v>
       </c>
       <c r="C13">
-        <v>23.56802077286033</v>
+        <v>13.48409423586311</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>31.86597680419456</v>
+        <v>26.82099627777069</v>
       </c>
       <c r="F13">
-        <v>41.99993660476193</v>
+        <v>39.72384207404777</v>
       </c>
       <c r="G13">
-        <v>2.030183179005424</v>
+        <v>3.595131119799481</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.656310291725044</v>
+        <v>15.87859712426023</v>
       </c>
       <c r="J13">
-        <v>3.636186078872424</v>
+        <v>7.322089980344515</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.03045732426527</v>
+        <v>17.21904076972381</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.7563563552658</v>
+        <v>18.88762870799181</v>
       </c>
       <c r="C14">
-        <v>23.36668697962006</v>
+        <v>13.37365597511257</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>31.59532290940032</v>
+        <v>26.74630520740433</v>
       </c>
       <c r="F14">
-        <v>41.6521227211859</v>
+        <v>39.66899504152267</v>
       </c>
       <c r="G14">
-        <v>2.031368601636487</v>
+        <v>3.595499596123158</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.76451914498068</v>
+        <v>15.91155873773777</v>
       </c>
       <c r="J14">
-        <v>3.649768143492285</v>
+        <v>7.327577541182459</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.01194861095453</v>
+        <v>17.24298579743781</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.58471812920893</v>
+        <v>18.80005750634997</v>
       </c>
       <c r="C15">
-        <v>23.24259809484999</v>
+        <v>13.30552405646467</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>31.42884305654496</v>
+        <v>26.70053629613766</v>
       </c>
       <c r="F15">
-        <v>41.43884538748232</v>
+        <v>39.63561447167621</v>
       </c>
       <c r="G15">
-        <v>2.032095625147211</v>
+        <v>3.595726535146638</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.830990811643943</v>
+        <v>15.93185395481509</v>
       </c>
       <c r="J15">
-        <v>3.658143219065872</v>
+        <v>7.330959931867806</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.00155355085374</v>
+        <v>17.25779268214622</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.58447387863022</v>
+        <v>18.28974256133168</v>
       </c>
       <c r="C16">
-        <v>22.5197013846527</v>
+        <v>12.90764528858698</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>30.46409397757574</v>
+        <v>26.43803749623802</v>
       </c>
       <c r="F16">
-        <v>40.21309932319214</v>
+        <v>39.44765839416082</v>
       </c>
       <c r="G16">
-        <v>2.036277065249391</v>
+        <v>3.597046022511862</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.214691027494593</v>
+        <v>16.04977393272977</v>
       </c>
       <c r="J16">
-        <v>3.706967786424038</v>
+        <v>7.350666758601657</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.956037380390912</v>
+        <v>17.34478042023254</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.95591027335983</v>
+        <v>17.96916018697607</v>
       </c>
       <c r="C17">
-        <v>22.06565147606964</v>
+        <v>12.65691498798489</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>29.86265059015302</v>
+        <v>26.2768846238569</v>
       </c>
       <c r="F17">
-        <v>39.45801657450072</v>
+        <v>39.33537328080078</v>
       </c>
       <c r="G17">
-        <v>2.038856923413499</v>
+        <v>3.597872472416412</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.452435900385225</v>
+        <v>16.12355919804874</v>
       </c>
       <c r="J17">
-        <v>3.737637834311228</v>
+        <v>7.363045431187472</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.940218192749189</v>
+        <v>17.40004120867801</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.5888519188</v>
+        <v>17.78202572229964</v>
       </c>
       <c r="C18">
-        <v>21.80058751364168</v>
+        <v>12.51025855629963</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>29.51317956758536</v>
+        <v>26.1841799075309</v>
       </c>
       <c r="F18">
-        <v>39.02258694582972</v>
+        <v>39.27191679755256</v>
       </c>
       <c r="G18">
-        <v>2.040346625619603</v>
+        <v>3.598354083396782</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.59001035337847</v>
+        <v>16.16653079599254</v>
       </c>
       <c r="J18">
-        <v>3.755533636188095</v>
+        <v>7.370271713558651</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>9.935387572752168</v>
+        <v>17.43251927313902</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.46362031908544</v>
+        <v>17.71819597569128</v>
       </c>
       <c r="C19">
-        <v>21.71016870498682</v>
+        <v>12.46018354577614</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>29.39424699412067</v>
+        <v>26.15279214179693</v>
       </c>
       <c r="F19">
-        <v>38.87496777442818</v>
+        <v>39.25062665933938</v>
       </c>
       <c r="G19">
-        <v>2.040852056042603</v>
+        <v>3.598518225098609</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.636730702358344</v>
+        <v>16.18117176896846</v>
       </c>
       <c r="J19">
-        <v>3.761635920834522</v>
+        <v>7.37273669466654</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.934467459556185</v>
+        <v>17.44363457391387</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.02339306165853</v>
+        <v>18.00357119332295</v>
       </c>
       <c r="C20">
-        <v>22.11438974131533</v>
+        <v>12.68385847693266</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>29.92704120420142</v>
+        <v>26.29404172812179</v>
       </c>
       <c r="F20">
-        <v>39.53851365901425</v>
+        <v>39.3472099674038</v>
       </c>
       <c r="G20">
-        <v>2.038581698812366</v>
+        <v>3.597783848008453</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.427041009616709</v>
+        <v>16.11564956952108</v>
       </c>
       <c r="J20">
-        <v>3.734346359547219</v>
+        <v>7.361716691525581</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>9.941456279856761</v>
+        <v>17.39408674867765</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.83836815680241</v>
+        <v>18.92947087799755</v>
       </c>
       <c r="C21">
-        <v>23.42598312898935</v>
+        <v>13.406195493878</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>31.67496555073186</v>
+        <v>26.76824779583293</v>
       </c>
       <c r="F21">
-        <v>41.75433226777222</v>
+        <v>39.68506027745235</v>
       </c>
       <c r="G21">
-        <v>2.031020225650646</v>
+        <v>3.595391108070192</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.73269545967792</v>
+        <v>15.90185517960768</v>
       </c>
       <c r="J21">
-        <v>3.645767103572633</v>
+        <v>7.32596131475411</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.01718784625463</v>
+        <v>17.2359233949441</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.97606944861975</v>
+        <v>19.50977454650788</v>
       </c>
       <c r="C22">
-        <v>24.24884039096344</v>
+        <v>13.85656016072291</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>32.78612843101617</v>
+        <v>27.07742141111271</v>
       </c>
       <c r="F22">
-        <v>43.19219089629305</v>
+        <v>39.91552687540394</v>
       </c>
       <c r="G22">
-        <v>2.026120657632071</v>
+        <v>3.593882706477117</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.287327225921929</v>
+        <v>15.76684326994307</v>
       </c>
       <c r="J22">
-        <v>3.59034312303258</v>
+        <v>7.303537889982913</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.10837157058358</v>
+        <v>17.13880503557803</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.37325757040357</v>
+        <v>19.20234350908845</v>
       </c>
       <c r="C23">
-        <v>23.8127853352077</v>
+        <v>13.61817790350213</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.19591242499392</v>
+        <v>26.91250774651759</v>
       </c>
       <c r="F23">
-        <v>42.4257177225663</v>
+        <v>39.7916572358398</v>
       </c>
       <c r="G23">
-        <v>2.028732274097008</v>
+        <v>3.594682716898987</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.524182474378516</v>
+        <v>15.83847142158255</v>
       </c>
       <c r="J23">
-        <v>3.619687582585822</v>
+        <v>7.315419373259825</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.05572459613473</v>
+        <v>17.190063319889</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.99290181996859</v>
+        <v>17.98802277938449</v>
       </c>
       <c r="C24">
-        <v>22.09236771205205</v>
+        <v>12.67168513856295</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>29.89794171308413</v>
+        <v>26.28628516799129</v>
       </c>
       <c r="F24">
-        <v>39.50212504091965</v>
+        <v>39.34185517787184</v>
       </c>
       <c r="G24">
-        <v>2.038706107481477</v>
+        <v>3.597823894932537</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.438519270484422</v>
+        <v>16.11922379442633</v>
       </c>
       <c r="J24">
-        <v>3.735833617550274</v>
+        <v>7.362317073232563</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>9.94088330161469</v>
+        <v>17.39677655570413</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.21371694491782</v>
+        <v>16.57364582313672</v>
       </c>
       <c r="C25">
-        <v>20.08709269681038</v>
+        <v>11.55734726264582</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>27.28427659990662</v>
+        <v>25.61066135108882</v>
       </c>
       <c r="F25">
-        <v>36.30652723521698</v>
+        <v>38.89993640154288</v>
       </c>
       <c r="G25">
-        <v>2.049692285938883</v>
+        <v>3.601451666868168</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.456651882860855</v>
+        <v>16.44242609274097</v>
       </c>
       <c r="J25">
-        <v>3.870803731333496</v>
+        <v>7.416973438113006</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>9.977555293512101</v>
+        <v>17.64622405674661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_122/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_122/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.44521330546508</v>
+        <v>24.98174428675637</v>
       </c>
       <c r="C2">
-        <v>10.6564330097659</v>
+        <v>18.47995588961528</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.11644031700227</v>
+        <v>25.24479864659155</v>
       </c>
       <c r="F2">
-        <v>38.61342350386668</v>
+        <v>33.92379319869453</v>
       </c>
       <c r="G2">
-        <v>3.604331127308892</v>
+        <v>2.058024784425324</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.69809475389609</v>
+        <v>8.232317779561463</v>
       </c>
       <c r="J2">
-        <v>7.460739110491136</v>
+        <v>3.97774699675444</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.85230328006006</v>
+        <v>10.12035410620608</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.62826940263328</v>
+        <v>23.35171108980122</v>
       </c>
       <c r="C3">
-        <v>9.995787905227608</v>
+        <v>17.30858811886383</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.78526414648747</v>
+        <v>23.793096636846</v>
       </c>
       <c r="F3">
-        <v>38.44420350242255</v>
+        <v>32.29640106179811</v>
       </c>
       <c r="G3">
-        <v>3.606413720361229</v>
+        <v>2.063844879740532</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.8824939374826</v>
+        <v>8.77452353489277</v>
       </c>
       <c r="J3">
-        <v>7.492608258394426</v>
+        <v>4.054658856411939</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.00577431685137</v>
+        <v>10.27771372717288</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.10186918382309</v>
+        <v>22.29252781484843</v>
       </c>
       <c r="C4">
-        <v>9.565533061648935</v>
+        <v>16.54872165612159</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.58436526692265</v>
+        <v>22.86881365500492</v>
       </c>
       <c r="F4">
-        <v>38.35280396412916</v>
+        <v>31.29382910432332</v>
       </c>
       <c r="G4">
-        <v>3.607757522801745</v>
+        <v>2.067510206222327</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.00123555203621</v>
+        <v>9.115823645013723</v>
       </c>
       <c r="J4">
-        <v>7.513269293802447</v>
+        <v>4.103998704897315</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.10676262854842</v>
+        <v>10.40042567630983</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.88129976773867</v>
+        <v>21.84618460555451</v>
       </c>
       <c r="C5">
-        <v>9.384033733125511</v>
+        <v>16.22885470414798</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.50320132817832</v>
+        <v>22.48416474388578</v>
       </c>
       <c r="F5">
-        <v>38.31872720947415</v>
+        <v>30.88495605490899</v>
       </c>
       <c r="G5">
-        <v>3.608321552515596</v>
+        <v>2.069027808462302</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.05101578490645</v>
+        <v>9.257054370219938</v>
       </c>
       <c r="J5">
-        <v>7.521964253973351</v>
+        <v>4.124628079841394</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.14960702122466</v>
+        <v>10.45645124801556</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.84431442656469</v>
+        <v>21.7711796077727</v>
       </c>
       <c r="C6">
-        <v>9.353524290651782</v>
+        <v>16.17512455927035</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.48976922268622</v>
+        <v>22.41982101208555</v>
       </c>
       <c r="F6">
-        <v>38.31326085280089</v>
+        <v>30.81706073413583</v>
       </c>
       <c r="G6">
-        <v>3.60841620249122</v>
+        <v>2.069281276498046</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.05936595152691</v>
+        <v>9.280636622741181</v>
       </c>
       <c r="J6">
-        <v>7.523424695445685</v>
+        <v>4.128084925703971</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.15682318920972</v>
+        <v>10.46610251918956</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.09891877245296</v>
+        <v>22.28656791921956</v>
       </c>
       <c r="C7">
-        <v>9.563110231205119</v>
+        <v>16.54444916053077</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.58326769420076</v>
+        <v>22.86365808723024</v>
       </c>
       <c r="F7">
-        <v>38.35233153095355</v>
+        <v>31.28831543054341</v>
       </c>
       <c r="G7">
-        <v>3.607765062951005</v>
+        <v>2.067530575031785</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.00190126390196</v>
+        <v>9.117719577811471</v>
       </c>
       <c r="J7">
-        <v>7.513385441226815</v>
+        <v>4.104274813038273</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.10733360751082</v>
+        <v>10.40115757963296</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.16877305639987</v>
+        <v>24.43178342145281</v>
       </c>
       <c r="C8">
-        <v>10.43376265917119</v>
+        <v>18.08450073460319</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.00179724637628</v>
+        <v>24.75123416763924</v>
       </c>
       <c r="F8">
-        <v>38.55249846850403</v>
+        <v>33.36365238454071</v>
       </c>
       <c r="G8">
-        <v>3.605035730211112</v>
+        <v>2.06001305216786</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.76053242158167</v>
+        <v>8.417552776264303</v>
       </c>
       <c r="J8">
-        <v>7.471500997851368</v>
+        <v>4.003821161720507</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.90381282922686</v>
+        <v>10.16886234634098</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.06382785529114</v>
+        <v>28.17850090197285</v>
       </c>
       <c r="C9">
-        <v>11.94520814301547</v>
+        <v>20.78275146074314</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.83797251210403</v>
+        <v>28.18273066289676</v>
       </c>
       <c r="F9">
-        <v>39.04286340933728</v>
+        <v>37.38819837677658</v>
       </c>
       <c r="G9">
-        <v>3.600197438753041</v>
+        <v>2.045956759422554</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.33081800872843</v>
+        <v>7.109640420276643</v>
       </c>
       <c r="J9">
-        <v>7.398016679382902</v>
+        <v>3.824119339307175</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.55869235506217</v>
+        <v>9.945672254107549</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.3259499341579</v>
+        <v>30.65545100360637</v>
       </c>
       <c r="C10">
-        <v>12.93592439936827</v>
+        <v>22.57098369585747</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.45642212775176</v>
+        <v>30.53224404818464</v>
       </c>
       <c r="F10">
-        <v>39.46062238306748</v>
+        <v>40.29910492260261</v>
       </c>
       <c r="G10">
-        <v>3.596952565751802</v>
+        <v>2.035983444778912</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.04142655945864</v>
+        <v>6.187677435200531</v>
       </c>
       <c r="J10">
-        <v>7.349268673833246</v>
+        <v>3.703503302996728</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.33856900517493</v>
+        <v>9.958434032832253</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.87091534880947</v>
+        <v>31.72359808209811</v>
       </c>
       <c r="C11">
-        <v>13.36065585517146</v>
+        <v>23.34300287171384</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.7375538307259</v>
+        <v>31.56352822195166</v>
       </c>
       <c r="F11">
-        <v>39.66259887780835</v>
+        <v>41.61135129199923</v>
       </c>
       <c r="G11">
-        <v>3.59554292042957</v>
+        <v>2.031507575415497</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.91543355783923</v>
+        <v>5.777219391666341</v>
       </c>
       <c r="J11">
-        <v>7.32822310597869</v>
+        <v>3.651366432033728</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.24580903804541</v>
+        <v>10.00990519204322</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.0730260595257</v>
+        <v>32.11975393233779</v>
       </c>
       <c r="C12">
-        <v>13.51776474599919</v>
+        <v>23.62945134370658</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.84389107731025</v>
+        <v>31.94869105077752</v>
       </c>
       <c r="F12">
-        <v>39.74074534933008</v>
+        <v>42.10649598085146</v>
       </c>
       <c r="G12">
-        <v>3.595018625558453</v>
+        <v>2.029820043627597</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.86853195860549</v>
+        <v>5.62320750622303</v>
       </c>
       <c r="J12">
-        <v>7.320415725397976</v>
+        <v>3.632043803179594</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.21175430356857</v>
+        <v>10.03651225117668</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.02968799476895</v>
+        <v>32.03480335914087</v>
       </c>
       <c r="C13">
-        <v>13.48409423586311</v>
+        <v>23.56802077286032</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.82099627777069</v>
+        <v>31.86597680419447</v>
       </c>
       <c r="F13">
-        <v>39.72384207404777</v>
+        <v>41.99993660476193</v>
       </c>
       <c r="G13">
-        <v>3.595131119799481</v>
+        <v>2.030183179005424</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.87859712426023</v>
+        <v>5.656310291725256</v>
       </c>
       <c r="J13">
-        <v>7.322089980344515</v>
+        <v>3.636186078872458</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.21904076972381</v>
+        <v>10.03045732426537</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.88762870799181</v>
+        <v>31.7563563552658</v>
       </c>
       <c r="C14">
-        <v>13.37365597511257</v>
+        <v>23.36668697961999</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.74630520740433</v>
+        <v>31.5953229094003</v>
       </c>
       <c r="F14">
-        <v>39.66899504152267</v>
+        <v>41.65212272118588</v>
       </c>
       <c r="G14">
-        <v>3.595499596123158</v>
+        <v>2.031368601636488</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.91155873773777</v>
+        <v>5.764519144980712</v>
       </c>
       <c r="J14">
-        <v>7.327577541182459</v>
+        <v>3.64976814349228</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.24298579743781</v>
+        <v>10.01194861095455</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.80005750634997</v>
+        <v>31.58471812920893</v>
       </c>
       <c r="C15">
-        <v>13.30552405646467</v>
+        <v>23.24259809484998</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.70053629613766</v>
+        <v>31.42884305654496</v>
       </c>
       <c r="F15">
-        <v>39.63561447167621</v>
+        <v>41.43884538748229</v>
       </c>
       <c r="G15">
-        <v>3.595726535146638</v>
+        <v>2.032095625147347</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.93185395481509</v>
+        <v>5.830990811644011</v>
       </c>
       <c r="J15">
-        <v>7.330959931867806</v>
+        <v>3.658143219065848</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.25779268214622</v>
+        <v>10.00155355085376</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28974256133168</v>
+        <v>30.58447387863021</v>
       </c>
       <c r="C16">
-        <v>12.90764528858698</v>
+        <v>22.51970138465268</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.43803749623802</v>
+        <v>30.4640939775757</v>
       </c>
       <c r="F16">
-        <v>39.44765839416082</v>
+        <v>40.21309932319217</v>
       </c>
       <c r="G16">
-        <v>3.597046022511862</v>
+        <v>2.036277065249258</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.04977393272977</v>
+        <v>6.2146910274946</v>
       </c>
       <c r="J16">
-        <v>7.350666758601657</v>
+        <v>3.706967786423982</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.34478042023254</v>
+        <v>9.956037380390946</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.96916018697607</v>
+        <v>29.95591027335978</v>
       </c>
       <c r="C17">
-        <v>12.65691498798489</v>
+        <v>22.06565147606968</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.2768846238569</v>
+        <v>29.86265059015297</v>
       </c>
       <c r="F17">
-        <v>39.33537328080078</v>
+        <v>39.45801657450068</v>
       </c>
       <c r="G17">
-        <v>3.597872472416412</v>
+        <v>2.038856923413364</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.12355919804874</v>
+        <v>6.452435900385351</v>
       </c>
       <c r="J17">
-        <v>7.363045431187472</v>
+        <v>3.737637834311223</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.40004120867801</v>
+        <v>9.940218192749256</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.78202572229964</v>
+        <v>29.58885191879994</v>
       </c>
       <c r="C18">
-        <v>12.51025855629963</v>
+        <v>21.80058751364167</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.1841799075309</v>
+        <v>29.51317956758535</v>
       </c>
       <c r="F18">
-        <v>39.27191679755256</v>
+        <v>39.02258694582974</v>
       </c>
       <c r="G18">
-        <v>3.598354083396782</v>
+        <v>2.040346625619469</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.16653079599254</v>
+        <v>6.590010353378608</v>
       </c>
       <c r="J18">
-        <v>7.370271713558651</v>
+        <v>3.755533636188066</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.43251927313902</v>
+        <v>9.935387572752239</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.71819597569128</v>
+        <v>29.46362031908537</v>
       </c>
       <c r="C19">
-        <v>12.46018354577614</v>
+        <v>21.71016870498676</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.15279214179693</v>
+        <v>29.39424699412061</v>
       </c>
       <c r="F19">
-        <v>39.25062665933938</v>
+        <v>38.87496777442821</v>
       </c>
       <c r="G19">
-        <v>3.598518225098609</v>
+        <v>2.040852056042336</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.18117176896846</v>
+        <v>6.636730702358586</v>
       </c>
       <c r="J19">
-        <v>7.37273669466654</v>
+        <v>3.761635920834494</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.44363457391387</v>
+        <v>9.934467459556352</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.00357119332295</v>
+        <v>30.02339306165849</v>
       </c>
       <c r="C20">
-        <v>12.68385847693266</v>
+        <v>22.11438974131529</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.29404172812179</v>
+        <v>29.92704120420139</v>
       </c>
       <c r="F20">
-        <v>39.3472099674038</v>
+        <v>39.53851365901425</v>
       </c>
       <c r="G20">
-        <v>3.597783848008453</v>
+        <v>2.038581698812364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.11564956952108</v>
+        <v>6.427041009616552</v>
       </c>
       <c r="J20">
-        <v>7.361716691525581</v>
+        <v>3.734346359547221</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.39408674867765</v>
+        <v>9.941456279856737</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.92947087799755</v>
+        <v>31.83836815680239</v>
       </c>
       <c r="C21">
-        <v>13.406195493878</v>
+        <v>23.42598312898937</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.76824779583293</v>
+        <v>31.67496555073188</v>
       </c>
       <c r="F21">
-        <v>39.68506027745235</v>
+        <v>41.75433226777221</v>
       </c>
       <c r="G21">
-        <v>3.595391108070192</v>
+        <v>2.031020225650781</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.90185517960768</v>
+        <v>5.732695459677948</v>
       </c>
       <c r="J21">
-        <v>7.32596131475411</v>
+        <v>3.645767103572731</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.2359233949441</v>
+        <v>10.01718784625464</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.50977454650788</v>
+        <v>32.97606944861977</v>
       </c>
       <c r="C22">
-        <v>13.85656016072291</v>
+        <v>24.24884039096341</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>27.07742141111271</v>
+        <v>32.78612843101615</v>
       </c>
       <c r="F22">
-        <v>39.91552687540394</v>
+        <v>43.19219089629309</v>
       </c>
       <c r="G22">
-        <v>3.593882706477117</v>
+        <v>2.02612065763234</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.76684326994307</v>
+        <v>5.287327225922079</v>
       </c>
       <c r="J22">
-        <v>7.303537889982913</v>
+        <v>3.590343123032586</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.13880503557803</v>
+        <v>10.10837157058367</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.20234350908845</v>
+        <v>32.37325757040357</v>
       </c>
       <c r="C23">
-        <v>13.61817790350213</v>
+        <v>23.81278533520774</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.91250774651759</v>
+        <v>32.19591242499394</v>
       </c>
       <c r="F23">
-        <v>39.7916572358398</v>
+        <v>42.42571772256631</v>
       </c>
       <c r="G23">
-        <v>3.594682716898987</v>
+        <v>2.02873227409714</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.83847142158255</v>
+        <v>5.524182474378451</v>
       </c>
       <c r="J23">
-        <v>7.315419373259825</v>
+        <v>3.619687582585795</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.190063319889</v>
+        <v>10.0557245961347</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.98802277938449</v>
+        <v>29.9929018199686</v>
       </c>
       <c r="C24">
-        <v>12.67168513856295</v>
+        <v>22.09236771205203</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.28628516799129</v>
+        <v>29.89794171308413</v>
       </c>
       <c r="F24">
-        <v>39.34185517787184</v>
+        <v>39.50212504091968</v>
       </c>
       <c r="G24">
-        <v>3.597823894932537</v>
+        <v>2.038706107481477</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.11922379442633</v>
+        <v>6.438519270484397</v>
       </c>
       <c r="J24">
-        <v>7.362317073232563</v>
+        <v>3.735833617550336</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.39677655570413</v>
+        <v>9.940883301614694</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.57364582313672</v>
+        <v>27.21371694491778</v>
       </c>
       <c r="C25">
-        <v>11.55734726264582</v>
+        <v>20.08709269681025</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.61066135108882</v>
+        <v>27.28427659990662</v>
       </c>
       <c r="F25">
-        <v>38.89993640154288</v>
+        <v>36.30652723521698</v>
       </c>
       <c r="G25">
-        <v>3.601451666868168</v>
+        <v>2.04969228593875</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.44242609274097</v>
+        <v>7.456651882861018</v>
       </c>
       <c r="J25">
-        <v>7.416973438113006</v>
+        <v>3.870803731333552</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.64622405674661</v>
+        <v>9.977555293512244</v>
       </c>
     </row>
   </sheetData>
